--- a/Result.xlsx
+++ b/Result.xlsx
@@ -483,17 +483,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -2.2350</t>
+          <t xml:space="preserve">   -1.8099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.086</t>
+          <t xml:space="preserve">    0.015</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -25.875</t>
+          <t xml:space="preserve"> -123.275</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,12 +503,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -2.404</t>
+          <t xml:space="preserve">   -1.839</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -2.066</t>
+          <t xml:space="preserve">   -1.781</t>
         </is>
       </c>
     </row>
@@ -520,17 +520,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.7501</t>
+          <t xml:space="preserve">   -0.8405</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.096</t>
+          <t xml:space="preserve">    0.013</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   18.304</t>
+          <t xml:space="preserve">  -67.221</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.563</t>
+          <t xml:space="preserve">   -0.865</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.938</t>
+          <t xml:space="preserve">   -0.816</t>
         </is>
       </c>
     </row>
@@ -557,17 +557,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.0020</t>
+          <t xml:space="preserve">   -0.0014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.67e-05</t>
+          <t xml:space="preserve"> 7.67e-06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -43.420</t>
+          <t xml:space="preserve"> -185.496</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.002</t>
+          <t xml:space="preserve">   -0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.002</t>
+          <t xml:space="preserve">   -0.001</t>
         </is>
       </c>
     </row>
@@ -637,17 +637,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -2.2350</t>
+          <t xml:space="preserve">   -1.8099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.086</t>
+          <t xml:space="preserve">    0.015</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -25.875</t>
+          <t xml:space="preserve"> -123.275</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -2.404</t>
+          <t xml:space="preserve">   -1.839</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -2.066</t>
+          <t xml:space="preserve">   -1.781</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -680,17 +680,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.7501</t>
+          <t xml:space="preserve">   -0.8405</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.096</t>
+          <t xml:space="preserve">    0.013</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   18.304</t>
+          <t xml:space="preserve">  -67.221</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.563</t>
+          <t xml:space="preserve">   -0.865</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.938</t>
+          <t xml:space="preserve">   -0.816</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -723,17 +723,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.0020</t>
+          <t xml:space="preserve">   -0.0014</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.67e-05</t>
+          <t xml:space="preserve"> 7.67e-06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -43.420</t>
+          <t xml:space="preserve"> -185.496</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.002</t>
+          <t xml:space="preserve">   -0.001</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.002</t>
+          <t xml:space="preserve">   -0.001</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.3322413788814034</v>
+        <v>0.2537782007408511</v>
       </c>
     </row>
     <row r="10">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1.237398210183473</v>
+        <v>1.135296766477708</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>747</v>
+        <v>55940</v>
       </c>
     </row>
     <row r="3">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07595322826639553</v>
+        <v>0.06250474875191626</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2755961325316368</v>
+        <v>0.2500094973234342</v>
       </c>
     </row>
     <row r="5">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9240467717336045</v>
+        <v>0.9374952512480837</v>
       </c>
     </row>
     <row r="7">
@@ -928,16 +928,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9227347952006619</v>
+        <v>0.9374952512480837</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9598149443219108</v>
+        <v>0.9677394054454315</v>
       </c>
       <c r="E10" t="n">
-        <v>8921</v>
+        <v>839032</v>
       </c>
     </row>
     <row r="11">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1827133479212254</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3089731729879741</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>914</v>
+        <v>55940</v>
       </c>
     </row>
     <row r="12">
@@ -966,16 +966,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9240467717336045</v>
+        <v>0.9374952512480837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9240467717336045</v>
+        <v>0.9374952512480837</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9240467717336045</v>
+        <v>0.9374952512480837</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9240467717336045</v>
+        <v>0.9374952512480837</v>
       </c>
     </row>
     <row r="13">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.961367397600331</v>
+        <v>0.4687476256240419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5913566739606126</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6343940586549425</v>
+        <v>0.4838697027227157</v>
       </c>
       <c r="E13" t="n">
-        <v>9835</v>
+        <v>894972</v>
       </c>
     </row>
     <row r="14">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9299153134707784</v>
+        <v>0.8788973461127076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9240467717336045</v>
+        <v>0.9374952512480837</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8993300049218885</v>
+        <v>0.907251097050736</v>
       </c>
       <c r="E14" t="n">
-        <v>9835</v>
+        <v>894972</v>
       </c>
     </row>
   </sheetData>
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9299153134707784</v>
+        <v>0.8788973461127076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9240467717336045</v>
+        <v>0.9374952512480837</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8993300049218885</v>
+        <v>0.907251097050736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2755961325316368</v>
+        <v>0.2500094973234342</v>
       </c>
     </row>
     <row r="3">
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8785875996732299</v>
+        <v>0.8788973461127076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9081850533807829</v>
+        <v>0.9374952512480837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8738862731158067</v>
+        <v>0.907251097050736</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3030098127441042</v>
+        <v>0.2500094973234342</v>
       </c>
     </row>
   </sheetData>
